--- a/meta/Team.xlsx
+++ b/meta/Team.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="5445"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Member</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,8 +547,12 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
